--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/149.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/149.xlsx
@@ -479,13 +479,13 @@
         <v>4.168950565539638</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.277362726651056</v>
+        <v>-6.278643646450187</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.61090327044251</v>
+        <v>-3.663499206316781</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.19664485952716</v>
+        <v>-9.577212578495901</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>4.48063187117851</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.005238068997354</v>
+        <v>-6.979272553527168</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.691620773815276</v>
+        <v>-3.721003705085435</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.06891955512901</v>
+        <v>-9.467635267587736</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>4.807974642086253</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.382200054463963</v>
+        <v>-7.384752116048493</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.752268903999356</v>
+        <v>-3.789039124645423</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.576430337397195</v>
+        <v>-8.99851550267978</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>5.126760482169244</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.984393697282479</v>
+        <v>-7.958271733592552</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.457686684240262</v>
+        <v>-3.506190521366926</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.194520676981266</v>
+        <v>-8.616561841202049</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>5.444380906342628</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.708255164991039</v>
+        <v>-8.676593956520898</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.407349469538506</v>
+        <v>-3.470823445691663</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.8643807102791</v>
+        <v>-8.270278373825331</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>5.755976649839377</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.338399260067707</v>
+        <v>-9.335255628652281</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.28238645402016</v>
+        <v>-3.3566798023698</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.343613476829054</v>
+        <v>-7.779490530483206</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>6.066282394760836</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.996479140381926</v>
+        <v>-9.983635719342541</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.14223329416631</v>
+        <v>-3.220481849071283</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.716837907483691</v>
+        <v>-7.18450817279339</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>6.376007758895792</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.6601227105107</v>
+        <v>-10.63490032408428</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.027517637041017</v>
+        <v>-3.101322084703965</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.175517289165135</v>
+        <v>-6.658089247405191</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>6.687382367009747</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.87449588361118</v>
+        <v>-10.87264295000862</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.816586324774839</v>
+        <v>-2.903155969367301</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.825669735782435</v>
+        <v>-6.354173913537156</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>6.999269276629692</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.63799252998982</v>
+        <v>-11.63279062668342</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.871186753464545</v>
+        <v>-2.952295377386664</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.147251586901849</v>
+        <v>-5.704077781436609</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>7.317268481495645</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.22190128712607</v>
+        <v>-12.21974523509776</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.471339326853906</v>
+        <v>-2.572546658005912</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.590476817876973</v>
+        <v>-5.148647489300136</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>7.639174034974923</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.18504052891519</v>
+        <v>-13.17293534791271</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.204091544487734</v>
+        <v>-2.33753209791331</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.84305522607675</v>
+        <v>-4.40281482473166</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>7.962345410295305</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.66013466021451</v>
+        <v>-13.64306224823525</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.114759611015464</v>
+        <v>-2.232887794933863</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.317897664460214</v>
+        <v>-3.903016541733812</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>8.277017335410289</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.4717391341636</v>
+        <v>-14.46801371093101</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.949520956927473</v>
+        <v>-2.053226570588472</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.602851076132701</v>
+        <v>-3.196682163643141</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>8.569007814472087</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.21040940367204</v>
+        <v>-15.16701457872131</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.57224607502138</v>
+        <v>-1.690423149008448</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.424881448163263</v>
+        <v>-3.00676869189783</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>8.821774534641953</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.17204772035301</v>
+        <v>-16.15285836840037</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.20480787493152</v>
+        <v>-1.318144832120342</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.056597449885427</v>
+        <v>-2.644796401485181</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>9.02710393139213</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.82729686569129</v>
+        <v>-16.82172828686987</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.048902334952469</v>
+        <v>-1.153776421254662</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.857482867216582</v>
+        <v>-2.447539641425764</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>9.176575576114432</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.61812794946285</v>
+        <v>-17.62687927175462</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5710508037802022</v>
+        <v>-0.6799436537269988</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.415497090420003</v>
+        <v>-2.036398608952551</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>9.271219605195453</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.495450453717</v>
+        <v>-18.46584262813096</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.3040230267230415</v>
+        <v>-0.399016430147199</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.540836559467102</v>
+        <v>-2.17533440609654</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>9.312423108126008</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.77418251321356</v>
+        <v>-18.79323008396706</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08345032350743575</v>
+        <v>-0.002532640260997434</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.664225314774301</v>
+        <v>-2.341976205155336</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>9.302633605799633</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.30524599512533</v>
+        <v>-19.34065218285552</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5339038601975115</v>
+        <v>0.4589602739345722</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.677630971603382</v>
+        <v>-2.375446346166236</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>9.244422047513423</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.81641121908875</v>
+        <v>-19.82793460827407</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6236855823015375</v>
+        <v>0.574394615069301</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.617354405941188</v>
+        <v>-2.332907097417209</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>9.145550434746685</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.05674501865256</v>
+        <v>-20.06831729790654</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6507022342481096</v>
+        <v>0.6129493232217923</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.062224696789246</v>
+        <v>-2.789559894814533</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>9.01069630855493</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.62062840366193</v>
+        <v>-20.63090998510305</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8718417928524065</v>
+        <v>0.8571063261555248</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.258435209379144</v>
+        <v>-3.016145807068573</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>8.850525151378271</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.5723250158168</v>
+        <v>-20.59352863859862</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8945952308110287</v>
+        <v>0.8896426668548438</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.51198399450422</v>
+        <v>-3.316961510582983</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>8.671730733154964</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.80688489827078</v>
+        <v>-20.83224906589634</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7542758447237027</v>
+        <v>0.7634622886266359</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.814809079840932</v>
+        <v>-3.619644814720554</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>8.479257108304459</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.97560452524802</v>
+        <v>-20.98581277158614</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8378583061204806</v>
+        <v>0.8333408637754512</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.157328011930126</v>
+        <v>-3.969287029814843</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>8.276909899631686</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.81870651687499</v>
+        <v>-20.83250329425342</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6182001165968589</v>
+        <v>0.6352285275143237</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.378061782964469</v>
+        <v>-4.204731822511734</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>8.070832946040237</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.49251197871442</v>
+        <v>-20.49907302592982</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6544863255631017</v>
+        <v>0.6628905283673285</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.864063288583884</v>
+        <v>-4.72202786108627</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>7.86373492376064</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.40199690558035</v>
+        <v>-20.42420277476988</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6121084140406829</v>
+        <v>0.629347052253425</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.959858489134215</v>
+        <v>-4.83196206949572</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>7.663562980338044</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.21529551134661</v>
+        <v>-20.25305820038666</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3763458358974434</v>
+        <v>0.405968328504081</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.329188734881571</v>
+        <v>-5.228871202979343</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>7.472958518263352</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.82738215049811</v>
+        <v>-19.86255366589869</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2396394258847676</v>
+        <v>0.2716770878836612</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.4630057418359</v>
+        <v>-5.342589502703785</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>7.292330435582227</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.50010714181996</v>
+        <v>-19.53750804435185</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1482981105901956</v>
+        <v>0.1897422218010336</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.664374156670393</v>
+        <v>-5.569527423452243</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>7.121906061179354</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.0015359995457</v>
+        <v>-19.02367831164596</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01288728739725231</v>
+        <v>0.04083773965540507</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.491933995467436</v>
+        <v>-5.387485252762665</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.962454263296637</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.53705101314758</v>
+        <v>-18.58488505633348</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.005915833012902578</v>
+        <v>0.01701360919292853</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.600489503940415</v>
+        <v>-5.510316661287036</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>6.813282114710097</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.16842478438906</v>
+        <v>-18.20483321852698</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09521327402923313</v>
+        <v>0.1027912346729513</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.242281748815291</v>
+        <v>-5.137598333780908</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>6.677387631934487</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.66594732562814</v>
+        <v>-17.71774635338311</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.05762196963739507</v>
+        <v>-0.07136496794029298</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.159970429203911</v>
+        <v>-5.042169808745595</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>6.553010060852749</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.03435608451887</v>
+        <v>-17.10558402556295</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1271436472849256</v>
+        <v>-0.1153122506669915</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.135129385313116</v>
+        <v>-5.019035028251354</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>6.436098500659444</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.6300498836456</v>
+        <v>-16.67904751046582</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1143540053210761</v>
+        <v>-0.1305317290436977</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.155320983673475</v>
+        <v>-4.990224110784624</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>6.322487389033815</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.94833654413672</v>
+        <v>-15.99363808176555</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2388476761801984</v>
+        <v>-0.2671354699121682</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.313363019653368</v>
+        <v>-5.132034643966358</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>6.208642003065385</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.32915849146254</v>
+        <v>-15.36708740673606</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2948708058681768</v>
+        <v>-0.3430324125141559</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.472236186800635</v>
+        <v>-5.247943218767178</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>6.090707540809808</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.86712289750474</v>
+        <v>-14.89727829185987</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4083153212080712</v>
+        <v>-0.4553329002471923</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.183119876718753</v>
+        <v>-4.931971593965332</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.967918254325557</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.25765930147512</v>
+        <v>-14.29281614985511</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4412183374224088</v>
+        <v>-0.489379944068388</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.333261277601711</v>
+        <v>-5.079864051689509</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>5.836287830728867</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.70792470233861</v>
+        <v>-13.75555829624296</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5636684034111606</v>
+        <v>-0.6209186738227347</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.472886424713935</v>
+        <v>-5.193171674837131</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>5.690740234339963</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.80683184669751</v>
+        <v>-12.85476367002075</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.735345879542879</v>
+        <v>-0.7887142785021226</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.61273157713517</v>
+        <v>-5.282552498378069</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>5.52708682903219</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.48827882626994</v>
+        <v>-12.52131384566968</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.8081431917912426</v>
+        <v>-0.8756065975478019</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.86541989705167</v>
+        <v>-5.508033495080187</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.341159195491003</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.7499018971735</v>
+        <v>-11.78078086454494</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9614135570690262</v>
+        <v>-1.015588642161311</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.000757385141609</v>
+        <v>-5.611318654150632</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.12947131638169</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.29642695423968</v>
+        <v>-11.3415231535801</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.039319881493316</v>
+        <v>-1.105213916045596</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.919634094198889</v>
+        <v>-5.544402817163167</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.891291951492473</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.74855017771259</v>
+        <v>-10.78183453646254</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.282249743703453</v>
+        <v>-1.345870390062617</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.188861924346162</v>
+        <v>-5.803094837512238</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.624128668654627</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.29555924645858</v>
+        <v>-10.34368663005649</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.260166099685598</v>
+        <v>-1.317294144925499</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.401401719871555</v>
+        <v>-5.998508441982828</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.326490182556836</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.679187483726013</v>
+        <v>-9.748645604284274</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.364609953383502</v>
+        <v>-1.42541942079419</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.439169297918473</v>
+        <v>-6.036036458693268</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.998776122371234</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.171141446143679</v>
+        <v>-9.232879824859081</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.27628026631895</v>
+        <v>-1.348143778255732</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.609292069866513</v>
+        <v>-6.188289910542733</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.642397925652026</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.526041879061118</v>
+        <v>-8.626633195347894</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.35334568156213</v>
+        <v>-1.429765747898877</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.515340024905008</v>
+        <v>-6.109718681184543</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.262192232403718</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.890583433520114</v>
+        <v>-7.962050935900677</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.549086849492804</v>
+        <v>-1.61235548735755</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.668757060388799</v>
+        <v>-6.267359818601348</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.865902241460255</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.496358364806428</v>
+        <v>-7.581094631823798</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.591850992557709</v>
+        <v>-1.671341355206879</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.621382583848393</v>
+        <v>-6.240626729053057</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.460776396911932</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.292266773147063</v>
+        <v>-7.350401953801549</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.549903313639579</v>
+        <v>-1.612331042323216</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.48479839900739</v>
+        <v>-6.099011756145999</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.054866647375058</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.61213258285619</v>
+        <v>-6.712049216195331</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.637064528062938</v>
+        <v>-1.688892889859104</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.682905846261651</v>
+        <v>-6.32247359301208</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.656148429895152</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.255767983319893</v>
+        <v>-6.32510387870648</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.687450632833364</v>
+        <v>-1.785000986848918</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.600814531959282</v>
+        <v>-6.249079821925953</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.271301773908026</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.116206393296938</v>
+        <v>-6.198688828148661</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.790897129130417</v>
+        <v>-1.873066667542657</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.407102301878378</v>
+        <v>-6.076879222059475</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.9082750388478661</v>
       </c>
       <c r="E61" t="n">
-        <v>-5.894059699278057</v>
+        <v>-5.995447923684139</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.929500473807456</v>
+        <v>-1.994133144588071</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.381449682847675</v>
+        <v>-6.061997085156586</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.5746824699886403</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.699819456455526</v>
+        <v>-5.784585057514097</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.960565223439833</v>
+        <v>-2.023227624453082</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.550614209449799</v>
+        <v>-6.218533307021469</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2755698150440442</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.321923670677335</v>
+        <v>-5.426885759103133</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.132311145667689</v>
+        <v>-2.191077008208006</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.297065424324723</v>
+        <v>-5.992910529120211</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.01484177023916588</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.202055000314314</v>
+        <v>-5.302040079749593</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.254458093230692</v>
+        <v>-2.327230960444721</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.132824127637583</v>
+        <v>-5.811381704151659</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2049229014296882</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.001327045379387</v>
+        <v>-5.108332738675555</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.057367559404749</v>
+        <v>-2.137102372397265</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.25610532479371</v>
+        <v>-5.919844321494167</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3830156329935905</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.092800363859366</v>
+        <v>-5.172945853428703</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.178732265869046</v>
+        <v>-2.247197918033323</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.23478925485396</v>
+        <v>-5.920690119682143</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5183873922492358</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.860880545113522</v>
+        <v>-4.947547969843323</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.219252354782037</v>
+        <v>-2.305777998312698</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.14978409245891</v>
+        <v>-5.837621004006391</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.611161894001455</v>
       </c>
       <c r="E68" t="n">
-        <v>-4.928700848371366</v>
+        <v>-5.018991027189552</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.23545941254586</v>
+        <v>-2.339086802096989</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.048733209526645</v>
+        <v>-5.726264094598669</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6634258936820336</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.101405015945137</v>
+        <v>-5.179272228314491</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.307410926606248</v>
+        <v>-2.391804963142933</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.863752745710052</v>
+        <v>-5.532864760957247</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6784667949021614</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.889432345216306</v>
+        <v>-4.977253575566698</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.178258032202955</v>
+        <v>-2.286280638927441</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.807954510337951</v>
+        <v>-5.501594673036459</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6602208234209597</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.434214380396638</v>
+        <v>-5.512198928930799</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.284070807823595</v>
+        <v>-2.388876448029651</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.675359755100351</v>
+        <v>-5.352665745856497</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6131473101688949</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.440902541790577</v>
+        <v>-5.532185189002747</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.214627354285936</v>
+        <v>-2.334119571120204</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.30724198305599</v>
+        <v>-5.028451255477032</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5412406606311921</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.72733967610939</v>
+        <v>-5.797262252320008</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.391775629101732</v>
+        <v>-2.492420724464043</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.349869233928621</v>
+        <v>-5.058626205859631</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4487635584859715</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.912378808008388</v>
+        <v>-5.980199111266232</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.251808251508824</v>
+        <v>-2.361615345739733</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.884416224170851</v>
+        <v>-4.597920421769635</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3398058606500701</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.353337893362914</v>
+        <v>-6.420830633160675</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.394665032160078</v>
+        <v>-2.523451251048352</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.723255001809866</v>
+        <v>-4.433767127206099</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2185425970645149</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.54682522912794</v>
+        <v>-6.61310060621584</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.447984541050653</v>
+        <v>-2.576037408908889</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.276683336572121</v>
+        <v>-4.011102705547567</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.08765002829904139</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.074138842772786</v>
+        <v>-7.164023234021017</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.426052456245673</v>
+        <v>-2.560319251831758</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.815205089397152</v>
+        <v>-3.585783553160301</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.05101079083107607</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.796435828283934</v>
+        <v>-7.8692918086147</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.473871832410968</v>
+        <v>-2.618439765465643</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.479212981475289</v>
+        <v>-3.26801277383143</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1957643651922492</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.457835344260788</v>
+        <v>-8.538552847633554</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.433332187470509</v>
+        <v>-2.590572426324227</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.031326173390344</v>
+        <v>-2.832822716579863</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3452915565942802</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.05215768602357</v>
+        <v>-9.129790226063312</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.527851357228576</v>
+        <v>-2.676242493653178</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.613897878086278</v>
+        <v>-2.437595401458459</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.4986628724026329</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.730634502986559</v>
+        <v>-9.818157503918071</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.487727277871805</v>
+        <v>-2.640269181126418</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.27287498209836</v>
+        <v>-2.104800704027558</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.6539742031402641</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.60197286283561</v>
+        <v>-10.70259351316358</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.625587493505072</v>
+        <v>-2.769749638989794</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.168983586176418</v>
+        <v>-2.007905476932171</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.811224084534365</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.5712918093045</v>
+        <v>-11.65548539655964</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.569843037208508</v>
+        <v>-2.737535972743691</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.859499673486968</v>
+        <v>-1.71133832038511</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.9706607617883891</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.52149962793062</v>
+        <v>-12.62728795851693</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.690190830244486</v>
+        <v>-2.838327738312009</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.495708672519826</v>
+        <v>-1.387964739186755</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.132785936098345</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.84316441029121</v>
+        <v>-13.95436487147919</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.624668360214092</v>
+        <v>-2.776731140795748</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.40218686016261</v>
+        <v>-1.285755161627031</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.298875684107003</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.0114268241886</v>
+        <v>-15.13408222846576</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.640738525785642</v>
+        <v>-2.764313063353784</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.478176693895069</v>
+        <v>-1.35656264808056</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.471020842608373</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.48046094053861</v>
+        <v>-16.59283476337465</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.54158457751774</v>
+        <v>-2.677890088967328</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.205130549384736</v>
+        <v>-1.114908816662688</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.64959120699158</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.87896135481963</v>
+        <v>-17.9814153827227</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.584417166678782</v>
+        <v>-2.71433763516018</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.507960523728315</v>
+        <v>-1.418012575390814</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.83843868215239</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.37521257239775</v>
+        <v>-19.47026953291117</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.590122637692471</v>
+        <v>-2.714044294748164</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.235471726000811</v>
+        <v>-1.188825711483575</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.040382192059923</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.15614088182259</v>
+        <v>-21.25445392090938</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.362358474783504</v>
+        <v>-2.48475476169672</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.457750423205099</v>
+        <v>-1.405589608941983</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.257730985125743</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.70341377506383</v>
+        <v>-22.81508358091104</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.377128164528455</v>
+        <v>-2.489237980993682</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.640081045299825</v>
+        <v>-1.579286244909737</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.491649137658532</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.57142507480216</v>
+        <v>-24.67803964754897</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.215243369151167</v>
+        <v>-2.324444226530579</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.927344421779146</v>
+        <v>-1.875266720632768</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.741671544528799</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.37802555928517</v>
+        <v>-26.49705332046709</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.156604620789389</v>
+        <v>-2.260422681608328</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.315453342902323</v>
+        <v>-2.26880243937822</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.002717476620261</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.40387111221155</v>
+        <v>-28.51582692496047</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.339042801035187</v>
+        <v>-2.440787922942554</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.521451647239784</v>
+        <v>-2.478863508422088</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.272278189783535</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.53500142801695</v>
+        <v>-30.6639758736696</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.321007254703138</v>
+        <v>-2.403778140960008</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.840332231127444</v>
+        <v>-2.797812538405885</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>3.544504295549343</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.68505708940417</v>
+        <v>-32.80211213631528</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.440959038182896</v>
+        <v>-2.519960500145375</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.139334113094229</v>
+        <v>-3.098046450103132</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.812391387412811</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.85390120418094</v>
+        <v>-34.93934148818715</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.572395098793038</v>
+        <v>-2.648008478996744</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.440907612673011</v>
+        <v>-3.405164083468995</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.068424564900764</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.90390089553332</v>
+        <v>-37.0092785495428</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.684856923752682</v>
+        <v>-2.773489729242983</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.709964327579941</v>
+        <v>-3.677594213114097</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.302215365135686</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.35267487648904</v>
+        <v>-39.42898738467471</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.761805002831057</v>
+        <v>-2.820370416089831</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.007523952520986</v>
+        <v>-3.960525929509332</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.503248341328323</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.49641149650078</v>
+        <v>-41.60625525828318</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.93680211462541</v>
+        <v>-2.951684251528299</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.517603816959956</v>
+        <v>-4.448654153115855</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>4.661030358249072</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.50094831299771</v>
+        <v>-43.61256433976937</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.023273979080535</v>
+        <v>-3.025835818678798</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.891793735533025</v>
+        <v>-4.808758842905342</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>4.769991814213182</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.90523722047137</v>
+        <v>-46.0343338912957</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.296794357256958</v>
+        <v>-3.274104476387606</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.073958131394276</v>
+        <v>-4.989603206912526</v>
       </c>
     </row>
   </sheetData>
